--- a/biology/Médecine/Neil_Aggett/Neil_Aggett.xlsx
+++ b/biology/Médecine/Neil_Aggett/Neil_Aggett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neil Aggett (né le 6 octobre 1953 - mort le 5 février 1982) est un médecin et syndicaliste sud-africain blanc[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neil Aggett (né le 6 octobre 1953 - mort le 5 février 1982) est un médecin et syndicaliste sud-africain blanc.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aggett naît à Nanyuki, au Kenya. Sa famille déménage en Afrique du Sud en 1964. Il y fréquente le Kingswood College (en) de Grahamstown[2] de 1964 à 1970, puis il entre à l'Université du Cap, où il complète ses études de médecine en 1976[3]
-Aggett travaille comme médecin dans des hôpitaux pour noirs à Umtata, Tembisa et, plus tard, à Baragwanath (Soweto). À cette époque, il apprend à parler un zoulou de base[4].
-Aggett est détenu, avec sa collègue Elizabeth Floyd, par les forces policières à partir du 27 novembre 1981. Il meurt le 5 février 1982, après 70 jours de détention sans procès. Il devient ainsi le premier blanc à mourir en détention depuis 1963[1].
-D'après les forces de l'ordre, Aggett s'est suicidé par pendaison. Cette version est remise en doute[5]. Cinq ans plus tard, le codétenu Frank Chikane témoigne qu'il a vu Aggett revenir à sa cellule avec plusieurs blessures, laissant croire qu'il avait été torturé.
-Environ 15 000 personnes participent à ses funérailles le 13 février 1982[6], célébrées par l'archevêque Desmond Tutu[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aggett naît à Nanyuki, au Kenya. Sa famille déménage en Afrique du Sud en 1964. Il y fréquente le Kingswood College (en) de Grahamstown de 1964 à 1970, puis il entre à l'Université du Cap, où il complète ses études de médecine en 1976
+Aggett travaille comme médecin dans des hôpitaux pour noirs à Umtata, Tembisa et, plus tard, à Baragwanath (Soweto). À cette époque, il apprend à parler un zoulou de base.
+Aggett est détenu, avec sa collègue Elizabeth Floyd, par les forces policières à partir du 27 novembre 1981. Il meurt le 5 février 1982, après 70 jours de détention sans procès. Il devient ainsi le premier blanc à mourir en détention depuis 1963.
+D'après les forces de l'ordre, Aggett s'est suicidé par pendaison. Cette version est remise en doute. Cinq ans plus tard, le codétenu Frank Chikane témoigne qu'il a vu Aggett revenir à sa cellule avec plusieurs blessures, laissant croire qu'il avait été torturé.
+Environ 15 000 personnes participent à ses funérailles le 13 février 1982, célébrées par l'archevêque Desmond Tutu.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johnny Clegg rend hommage à Aggett dans l'une de ses chansons, Asimbonanga (Mandela), tirée de son album Third World Child (1987). George Bizos en parle également dans No One to Blame?[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johnny Clegg rend hommage à Aggett dans l'une de ses chansons, Asimbonanga (Mandela), tirée de son album Third World Child (1987). George Bizos en parle également dans No One to Blame?.
 </t>
         </is>
       </c>
